--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HUJA TECH/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E2DA51-5BB0-034D-AD75-575B3418CDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6530FF-9BD2-AE43-8D09-CB586A85B105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
   <si>
     <t>Montant</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Pierre Crinon</t>
+  </si>
+  <si>
+    <t>Frow</t>
+  </si>
+  <si>
+    <t>Perso</t>
   </si>
 </sst>
 </file>
@@ -904,19 +910,13 @@
             <c:multiLvlStrRef>
               <c:f>Entrée!$J$5:$K$8</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>01/11/2019</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>15/11/2019</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>03/03/2019</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>04/03/2019</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4714,10 +4714,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$21</c:f>
+              <c:f>Entrée!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -4768,6 +4768,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6211,8 +6214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D21" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D21" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -6721,7 +6724,7 @@
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6785,8 +6788,8 @@
         <v>41</v>
       </c>
       <c r="F4" s="42">
-        <f>SUM(D5:D21)</f>
-        <v>891.43999999999994</v>
+        <f>SUM(D5:D46)</f>
+        <v>897.43999999999994</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -6818,7 +6821,7 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="38">
         <f>SUM(F4,N4)</f>
-        <v>2151.44</v>
+        <v>2157.44</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19">
@@ -6929,9 +6932,7 @@
         <v>164.5</v>
       </c>
       <c r="I7" s="34"/>
-      <c r="K7" s="3">
-        <v>43527</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="14"/>
       <c r="O7" s="30" t="s">
         <v>76</v>
@@ -6967,9 +6968,7 @@
         <v>191.67</v>
       </c>
       <c r="I8" s="24"/>
-      <c r="K8" s="3">
-        <v>43528</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="14"/>
       <c r="O8" s="30" t="s">
         <v>77</v>
@@ -7296,9 +7295,18 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="19">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="31">
+        <v>43797</v>
+      </c>
+      <c r="D22" s="32">
+        <v>6</v>
+      </c>
       <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="19">

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6530FF-9BD2-AE43-8D09-CB586A85B105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -417,15 +411,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0&quot; &quot;%"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0&quot; &quot;%"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -595,7 +589,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -614,69 +608,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Monétaire" xfId="4" builtinId="4"/>
@@ -685,18 +679,18 @@
     <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -714,17 +708,17 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -741,7 +735,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -758,7 +752,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -792,11 +786,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4"/>
       </font>
     </dxf>
@@ -809,9 +798,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableBudget" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
+    <tableStyle name="TableBudget" pivot="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -826,21 +815,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -868,12 +847,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -934,7 +911,7 @@
             <c:numRef>
               <c:f>Entrée!$L$5:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_)\ "€"_ ;_ * \(#,##0.00\)\ "€"_ ;_ * "-"??_)\ "€"_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1100</c:v>
@@ -945,31 +922,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5932-A344-B57C-84063AB564A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="119911552"/>
-        <c:axId val="119913088"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="118662272"/>
+        <c:axId val="118663808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119911552"/>
+        <c:axId val="118662272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -998,7 +966,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1026,19 +993,17 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119913088"/>
+        <c:crossAx val="118663808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119913088"/>
+        <c:axId val="118663808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1065,9 +1030,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1095,7 +1059,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119911552"/>
+        <c:crossAx val="118662272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,14 +1073,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1148,25 +1111,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1200,7 +1153,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1209,7 +1162,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1231,7 +1183,6 @@
           <c:explosion val="1"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1270,7 +1221,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -1278,7 +1229,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1317,7 +1267,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1325,7 +1275,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1364,7 +1313,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -1372,7 +1321,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1411,7 +1359,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1419,7 +1367,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1458,7 +1405,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1466,7 +1413,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1505,7 +1451,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1513,7 +1459,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1555,7 +1500,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -1563,7 +1508,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1605,7 +1549,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-C01B-D149-93D3-20DD315CBEFE}"/>
               </c:ext>
@@ -1613,7 +1557,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1655,7 +1598,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
               </c:ext>
@@ -1663,7 +1606,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1705,7 +1647,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000026-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
               </c:ext>
@@ -1713,7 +1655,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1755,7 +1696,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-A6A8-0348-B751-0123F647E1BC}"/>
               </c:ext>
@@ -1763,7 +1704,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1805,7 +1745,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-2E59-B645-BBAE-56E1F927175A}"/>
               </c:ext>
@@ -1813,7 +1753,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1858,7 +1797,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-37E0-EC4B-A62B-D72C906C93DD}"/>
               </c:ext>
@@ -1866,7 +1805,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1911,7 +1849,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-37E0-EC4B-A62B-D72C906C93DD}"/>
               </c:ext>
@@ -1919,7 +1857,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1964,7 +1901,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-D6D1-1543-BC34-0B1DCBB5F750}"/>
               </c:ext>
@@ -1975,18 +1912,13 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.23391334052044185"/>
+                  <c:x val="-0.23391334052044194"/>
                   <c:y val="0.11839536713548371"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0D9D-CD40-A631-D3E173EC3E56}"/>
@@ -1997,8 +1929,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11137789384876298"/>
-                  <c:y val="1.6609400857811169E-2"/>
+                  <c:x val="0.11137789384876295"/>
+                  <c:y val="1.6609400857811173E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2030,13 +1962,8 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -2059,13 +1986,8 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0D9D-CD40-A631-D3E173EC3E56}"/>
@@ -2081,13 +2003,8 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0D9D-CD40-A631-D3E173EC3E56}"/>
@@ -2131,13 +2048,8 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -2156,7 +2068,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.7363073778053743E-2"/>
-                  <c:y val="0.14509060612072189"/>
+                  <c:y val="0.14509060612072192"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2188,13 +2100,8 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -2212,18 +2119,13 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6231850757467125E-2"/>
-                  <c:y val="0.28194052470485537"/>
+                  <c:x val="-2.6231850757467135E-2"/>
+                  <c:y val="0.28194052470485542"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
@@ -2234,18 +2136,13 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9934933902184712E-2"/>
+                  <c:x val="-5.9934933902184725E-2"/>
                   <c:y val="0.23183891027966083"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
@@ -2261,13 +2158,8 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-A6A8-0348-B751-0123F647E1BC}"/>
@@ -2303,12 +2195,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -2323,7 +2210,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2331,7 +2218,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -2534,7 +2421,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FCB2-F141-8F7C-AB9C5A9D886B}"/>
             </c:ext>
@@ -2556,7 +2443,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2595,7 +2481,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -2603,7 +2489,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2642,7 +2527,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-0F39-2745-B637-FBF866D0E292}"/>
               </c:ext>
@@ -2677,12 +2562,7 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -2697,7 +2577,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2705,7 +2585,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -2804,7 +2684,7 @@
             <c:numRef>
               <c:f>Sortie!$D$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>60.11</c:v>
@@ -2812,7 +2692,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FCB2-F141-8F7C-AB9C5A9D886B}"/>
             </c:ext>
@@ -2834,7 +2714,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2873,7 +2752,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -2881,7 +2760,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2920,7 +2798,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -2956,12 +2834,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -2976,7 +2849,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2984,7 +2857,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3083,7 +2956,7 @@
             <c:numRef>
               <c:f>Sortie!$D$5:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>23.5</c:v>
@@ -3091,7 +2964,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FCB2-F141-8F7C-AB9C5A9D886B}"/>
             </c:ext>
@@ -3113,7 +2986,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3152,7 +3024,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3160,7 +3032,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3199,7 +3070,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3234,12 +3105,7 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3254,7 +3120,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3262,7 +3128,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3361,7 +3227,7 @@
             <c:numRef>
               <c:f>Sortie!$D$7:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>4.16</c:v>
@@ -3372,7 +3238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0D9D-CD40-A631-D3E173EC3E56}"/>
             </c:ext>
@@ -3394,7 +3260,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3433,7 +3298,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000019-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3441,7 +3306,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3480,7 +3344,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001B-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3515,12 +3379,7 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3535,7 +3394,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3543,7 +3402,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3642,7 +3501,7 @@
             <c:numRef>
               <c:f>Sortie!$D$8:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>4.16</c:v>
@@ -3653,7 +3512,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0D9D-CD40-A631-D3E173EC3E56}"/>
             </c:ext>
@@ -3675,7 +3534,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3714,7 +3572,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3722,7 +3580,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3761,7 +3618,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3796,12 +3653,7 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3816,7 +3668,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3824,7 +3676,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3923,7 +3775,7 @@
             <c:numRef>
               <c:f>Sortie!$D$9:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>4.16</c:v>
@@ -3934,21 +3786,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0D9D-CD40-A631-D3E173EC3E56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3961,14 +3805,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -4008,25 +3851,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4060,7 +3893,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4068,34 +3901,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4105,7 +3911,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -4144,7 +3949,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1828-C449-A5C0-34E569A8D69D}"/>
               </c:ext>
@@ -4152,7 +3957,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -4191,7 +3995,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1828-C449-A5C0-34E569A8D69D}"/>
               </c:ext>
@@ -4199,7 +4003,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -4238,7 +4041,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-1828-C449-A5C0-34E569A8D69D}"/>
               </c:ext>
@@ -4249,18 +4052,14 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1671472938210334E-3"/>
+                  <c:x val="-3.1671472938210347E-3"/>
                   <c:y val="-0.25999130206471016"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
               <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1828-C449-A5C0-34E569A8D69D}"/>
@@ -4304,13 +4103,9 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
               <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -4328,18 +4123,14 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.2012936138233302E-2"/>
-                  <c:y val="9.9390586083006313E-2"/>
+                  <c:x val="5.201293613823333E-2"/>
+                  <c:y val="9.9390586083006327E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
               <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1828-C449-A5C0-34E569A8D69D}"/>
@@ -4375,12 +4166,8 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -4395,7 +4182,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4426,28 +4213,22 @@
                   <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.949999999999989</c:v>
+                  <c:v>125.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>464.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1828-C449-A5C0-34E569A8D69D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -4461,7 +4242,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4491,7 +4272,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -4531,28 +4311,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4581,12 +4351,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4649,14 +4417,8 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4716,7 +4478,7 @@
             <c:numRef>
               <c:f>Entrée!$D$5:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_)\ "€"_ ;_ * \(#,##0.00\)\ "€"_ ;_ * "-"??_)\ "€"_ ;_ @_ </c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
@@ -4775,35 +4537,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-50ED-A244-BFC3-73D0CA83C7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="120632832"/>
-        <c:axId val="120634368"/>
+        <c:marker val="1"/>
+        <c:axId val="119526912"/>
+        <c:axId val="119528448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120632832"/>
+        <c:axId val="119526912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4838,19 +4592,17 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120634368"/>
+        <c:crossAx val="119528448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120634368"/>
+        <c:axId val="119528448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4866,9 +4618,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4897,7 +4648,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120632832"/>
+        <c:crossAx val="119526912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4911,7 +4662,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4942,14 +4693,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4978,7 +4728,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6076,7 +5826,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B828CFF2-47C1-BD4A-A928-23F58314E048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B828CFF2-47C1-BD4A-A928-23F58314E048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6114,7 +5864,7 @@
         <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58126CD-D9A9-ED47-A131-F34553736D57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A58126CD-D9A9-ED47-A131-F34553736D57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +5902,7 @@
         <xdr:cNvPr id="8" name="Graphique 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87C0DE2-E467-3E4A-9F8D-21D1F144D0F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E87C0DE2-E467-3E4A-9F8D-21D1F144D0F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6190,7 +5940,7 @@
         <xdr:cNvPr id="9" name="Graphique 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571F7F8D-00EE-1747-984D-96F235DEA4F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{571F7F8D-00EE-1747-984D-96F235DEA4F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6214,55 +5964,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
+    <tableColumn id="1" name="Nom" dataDxfId="12"/>
+    <tableColumn id="4" name="Libellé2"/>
+    <tableColumn id="2" name="Date" dataDxfId="11"/>
+    <tableColumn id="3" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:L8" totalsRowShown="0" headerRowDxfId="10" headerRowCellStyle="Normal">
-  <autoFilter ref="J4:L8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Dépenses478" displayName="Dépenses478" ref="J4:L8" totalsRowShown="0" headerRowDxfId="10" headerRowCellStyle="Normal">
+  <autoFilter ref="J4:L8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
+    <tableColumn id="1" name="Libellé"/>
+    <tableColumn id="2" name="Date" dataDxfId="9"/>
+    <tableColumn id="3" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
-  <autoFilter ref="B2:F35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="B2:F35"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="4"/>
+    <tableColumn id="1" name="Libellé"/>
+    <tableColumn id="2" name="Source" dataDxfId="7"/>
+    <tableColumn id="3" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" name="Date" dataDxfId="5"/>
+    <tableColumn id="5" name="Rembourser " dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E5" headerRowDxfId="3">
-  <autoFilter ref="A2:E5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Revenu5" displayName="Revenu5" ref="A2:E5" headerRowDxfId="3">
+  <autoFilter ref="A2:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Libellé" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant" dataDxfId="1">
+    <tableColumn id="1" name="Libellé" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
+    <tableColumn id="3" name="Montant" dataDxfId="1">
       <calculatedColumnFormula>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Remboursement" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="0"/>
+    <tableColumn id="4" name="Remboursement" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" name="Avant Remboursement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6523,14 +6273,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6541,20 +6291,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="28.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="35.25" customHeight="1">
@@ -6571,7 +6321,7 @@
       <c r="B3" s="2"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:15" ht="20.5" customHeight="1">
+    <row r="4" spans="2:15" ht="20.45" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
@@ -6586,29 +6336,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="20.5" customHeight="1">
+    <row r="5" spans="2:15" ht="20.45" customHeight="1">
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:15" ht="20.5" customHeight="1">
+    <row r="6" spans="2:15" ht="20.45" customHeight="1">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="2:15" ht="20.5" customHeight="1"/>
-    <row r="8" spans="2:15" ht="20.5" customHeight="1">
+    <row r="7" spans="2:15" ht="20.45" customHeight="1"/>
+    <row r="8" spans="2:15" ht="20.45" customHeight="1">
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="2:15" ht="20.5" customHeight="1"/>
-    <row r="10" spans="2:15" ht="20.5" customHeight="1">
+    <row r="9" spans="2:15" ht="20.45" customHeight="1"/>
+    <row r="10" spans="2:15" ht="20.45" customHeight="1">
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:15" ht="22.5" customHeight="1">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:15" ht="35" customHeight="1">
+    <row r="12" spans="2:15" ht="35.1" customHeight="1">
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="25" customHeight="1">
+    <row r="13" spans="2:15" ht="24.95" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -6618,75 +6368,75 @@
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:15" ht="25" customHeight="1">
+    <row r="14" spans="2:15" ht="24.95" customHeight="1">
       <c r="C14" s="3"/>
       <c r="D14" s="14"/>
       <c r="G14" s="10"/>
       <c r="H14" s="14"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="2:15" ht="25" customHeight="1">
+    <row r="15" spans="2:15" ht="24.95" customHeight="1">
       <c r="C15" s="3"/>
       <c r="D15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="2:15" ht="25" customHeight="1">
+    <row r="16" spans="2:15" ht="24.95" customHeight="1">
       <c r="C16" s="3"/>
       <c r="D16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="2:12" ht="25" customHeight="1">
+    <row r="17" spans="2:12" ht="24.95" customHeight="1">
       <c r="C17" s="3"/>
       <c r="D17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="2:12" ht="25" customHeight="1">
+    <row r="18" spans="2:12" ht="24.95" customHeight="1">
       <c r="C18" s="17"/>
       <c r="F18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="2:12" ht="25" customHeight="1">
+    <row r="19" spans="2:12" ht="24.95" customHeight="1">
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:12" ht="25" customHeight="1">
+    <row r="20" spans="2:12" ht="24.95" customHeight="1">
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:12" ht="25" customHeight="1">
+    <row r="21" spans="2:12" ht="24.95" customHeight="1">
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:12" ht="25" customHeight="1">
+    <row r="22" spans="2:12" ht="24.95" customHeight="1">
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:12" ht="25" customHeight="1"/>
-    <row r="24" spans="2:12" ht="25" customHeight="1"/>
-    <row r="25" spans="2:12" ht="25" customHeight="1"/>
-    <row r="26" spans="2:12" ht="25" customHeight="1"/>
-    <row r="27" spans="2:12" ht="25" customHeight="1"/>
-    <row r="28" spans="2:12" ht="25" customHeight="1"/>
-    <row r="29" spans="2:12" ht="25" customHeight="1"/>
-    <row r="30" spans="2:12" ht="25" customHeight="1">
+    <row r="23" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="24" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="25" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="26" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="27" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="28" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="29" spans="2:12" ht="24.95" customHeight="1"/>
+    <row r="30" spans="2:12" ht="24.95" customHeight="1">
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="2:12" ht="25" customHeight="1">
+    <row r="31" spans="2:12" ht="24.95" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:12" ht="25" customHeight="1">
+    <row r="32" spans="2:12" ht="24.95" customHeight="1">
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="2:3" ht="25" customHeight="1">
+    <row r="33" spans="2:3" ht="24.95" customHeight="1">
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="2:3" ht="25" customHeight="1">
+    <row r="34" spans="2:3" ht="24.95" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="10"/>
     </row>
@@ -6720,31 +6470,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="23">
+    <row r="3" spans="1:18" ht="23.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -6771,7 +6521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19">
+    <row r="4" spans="1:18" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -6824,7 +6574,7 @@
         <v>2157.44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19">
+    <row r="5" spans="1:18" ht="18.75">
       <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
@@ -6866,7 +6616,7 @@
       </c>
       <c r="Q5" s="30"/>
     </row>
-    <row r="6" spans="1:18" ht="19">
+    <row r="6" spans="1:18" ht="18.75">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -6907,7 +6657,7 @@
       </c>
       <c r="Q6" s="30"/>
     </row>
-    <row r="7" spans="1:18" ht="19">
+    <row r="7" spans="1:18" ht="18.75">
       <c r="A7" s="30" t="s">
         <v>60</v>
       </c>
@@ -6943,7 +6693,7 @@
       </c>
       <c r="Q7" s="30"/>
     </row>
-    <row r="8" spans="1:18" ht="19">
+    <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="30" t="s">
         <v>61</v>
       </c>
@@ -6979,7 +6729,7 @@
       </c>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="1:18" ht="19">
+    <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="30" t="s">
         <v>62</v>
       </c>
@@ -7011,7 +6761,7 @@
       </c>
       <c r="Q9" s="30"/>
     </row>
-    <row r="10" spans="1:18" ht="19">
+    <row r="10" spans="1:18" ht="18.75">
       <c r="A10" s="30" t="s">
         <v>63</v>
       </c>
@@ -7042,7 +6792,7 @@
       </c>
       <c r="Q10" s="30"/>
     </row>
-    <row r="11" spans="1:18" ht="19">
+    <row r="11" spans="1:18" ht="18.75">
       <c r="A11" s="30" t="s">
         <v>64</v>
       </c>
@@ -7074,7 +6824,7 @@
       </c>
       <c r="Q11" s="30"/>
     </row>
-    <row r="12" spans="1:18" ht="19">
+    <row r="12" spans="1:18" ht="18.75">
       <c r="A12" s="30" t="s">
         <v>65</v>
       </c>
@@ -7107,7 +6857,7 @@
       </c>
       <c r="Q12" s="30"/>
     </row>
-    <row r="13" spans="1:18" ht="19">
+    <row r="13" spans="1:18" ht="18.75">
       <c r="A13" s="30" t="s">
         <v>66</v>
       </c>
@@ -7139,7 +6889,7 @@
       </c>
       <c r="Q13" s="30"/>
     </row>
-    <row r="14" spans="1:18" ht="19">
+    <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="30" t="s">
         <v>63</v>
       </c>
@@ -7164,7 +6914,7 @@
       <c r="P14" s="40"/>
       <c r="Q14" s="30"/>
     </row>
-    <row r="15" spans="1:18" ht="19">
+    <row r="15" spans="1:18" ht="18.75">
       <c r="A15" s="30" t="s">
         <v>89</v>
       </c>
@@ -7185,7 +6935,7 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
     </row>
-    <row r="16" spans="1:18" ht="19">
+    <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="30" t="s">
         <v>109</v>
       </c>
@@ -7205,7 +6955,7 @@
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
     </row>
-    <row r="17" spans="1:17" ht="19">
+    <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="30" t="s">
         <v>105</v>
       </c>
@@ -7225,7 +6975,7 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
     </row>
-    <row r="18" spans="1:17" ht="19">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="30"/>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -7243,7 +6993,7 @@
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
     </row>
-    <row r="19" spans="1:17" ht="19">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="30" t="s">
         <v>110</v>
       </c>
@@ -7260,7 +7010,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="30" t="s">
         <v>119</v>
       </c>
@@ -7277,7 +7027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="30" t="s">
         <v>121</v>
       </c>
@@ -7294,7 +7044,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="30" t="s">
         <v>122</v>
       </c>
@@ -7309,96 +7059,96 @@
       </c>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" spans="1:17" ht="19">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="1:17" ht="19">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="1:17" ht="19">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="1:17" ht="19">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="1:17" ht="19">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" spans="1:17" ht="19">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" spans="1:17" ht="19">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" spans="1:17" ht="19">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" spans="1:17" ht="19">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" spans="1:17" ht="19">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
     </row>
-    <row r="33" spans="2:5" ht="19">
+    <row r="33" spans="2:5" ht="18.75">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" spans="2:5" ht="19">
+    <row r="34" spans="2:5" ht="18.75">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" spans="2:5" ht="19">
+    <row r="35" spans="2:5" ht="18.75">
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="19">
+    <row r="36" spans="2:5" ht="18.75">
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" spans="2:5" ht="19">
+    <row r="37" spans="2:5" ht="18.75">
       <c r="B37" s="30"/>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
     </row>
-    <row r="38" spans="2:5" ht="19">
+    <row r="38" spans="2:5" ht="18.75">
       <c r="B38" s="30"/>
       <c r="E38" s="33"/>
     </row>
@@ -7412,23 +7162,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="25"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="25"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23">
+    <row r="1" spans="1:13" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8235,23 +7985,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8300,12 +8050,15 @@
       </c>
       <c r="C4" s="10">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>81.949999999999989</v>
-      </c>
-      <c r="D4" s="15"/>
+        <v>125.79000000000002</v>
+      </c>
+      <c r="D4" s="15">
+        <f>100+5</f>
+        <v>105</v>
+      </c>
       <c r="E4" s="10">
-        <f>Sortie!K4</f>
-        <v>81.949999999999989</v>
+        <f>Sortie!K6</f>
+        <v>230.79000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8317,12 +8070,12 @@
       </c>
       <c r="C5" s="10">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>0</v>
+        <v>464.44</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10">
-        <f>Sortie!K7</f>
-        <v>0</v>
+        <f>Sortie!K8</f>
+        <v>464.44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8340,7 +8093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
@@ -8348,9 +8101,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F76B405-1987-8B4E-95B1-D3148D75D8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
     <sheet name="Entrée" sheetId="3" r:id="rId2"/>
     <sheet name="Sortie" sheetId="4" r:id="rId3"/>
-    <sheet name="Dettes" sheetId="5" r:id="rId4"/>
+    <sheet name="Remboursement" sheetId="5" r:id="rId4"/>
     <sheet name="Données du graphique" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -18,9 +24,9 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="128">
   <si>
     <t>Montant</t>
   </si>
@@ -406,22 +412,34 @@
   </si>
   <si>
     <t>Perso</t>
+  </si>
+  <si>
+    <t>Montant à rembourser</t>
+  </si>
+  <si>
+    <t>Lucas Martin</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Gain total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0&quot; &quot;%"/>
-    <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0&quot; &quot;%"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <b/>
       <sz val="12"/>
@@ -558,8 +576,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.39991454817346722"/>
+      <name val="Arial"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,9 +620,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
@@ -608,69 +639,76 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Monétaire" xfId="4" builtinId="4"/>
@@ -679,18 +717,49 @@
     <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39991454817346722"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -708,17 +777,17 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -735,24 +804,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3" tint="0.39991454817346722"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -798,9 +850,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableBudget" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+    <tableStyle name="TableBudget" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -815,11 +867,21 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -847,10 +909,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -911,7 +975,7 @@
             <c:numRef>
               <c:f>Entrée!$L$5:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>_ * #,##0.00_)\ "€"_ ;_ * \(#,##0.00\)\ "€"_ ;_ * "-"??_)\ "€"_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1100</c:v>
@@ -922,14 +986,151 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5932-A344-B57C-84063AB564A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entrée!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taxes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Entrée!$J$5:$K$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01/11/2019</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15/11/2019</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SULO France SAS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Neosmose BDE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entrée!$M$5:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ ">
+                  <c:v>243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85DE-F545-B2EC-8FC101983E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entrée!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Entrée!$J$5:$K$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01/11/2019</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15/11/2019</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SULO France SAS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Neosmose BDE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entrée!$N$5:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85DE-F545-B2EC-8FC101983E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="118662272"/>
         <c:axId val="118663808"/>
       </c:lineChart>
@@ -938,6 +1139,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -966,6 +1168,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -998,12 +1201,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="118663808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1030,8 +1235,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1073,13 +1279,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1118,8 +1325,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1153,7 +1370,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1162,6 +1379,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1183,6 +1401,7 @@
           <c:explosion val="1"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1221,7 +1440,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -1229,6 +1448,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1267,7 +1487,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1275,6 +1495,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1313,7 +1534,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -1321,6 +1542,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1359,7 +1581,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1367,6 +1589,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1405,7 +1628,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1413,6 +1636,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1451,7 +1675,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0D9D-CD40-A631-D3E173EC3E56}"/>
               </c:ext>
@@ -1459,6 +1683,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1500,7 +1725,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -1508,6 +1733,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1549,7 +1775,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-C01B-D149-93D3-20DD315CBEFE}"/>
               </c:ext>
@@ -1557,6 +1783,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1598,7 +1825,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
               </c:ext>
@@ -1606,6 +1833,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1647,7 +1875,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000026-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
               </c:ext>
@@ -1655,6 +1883,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1696,7 +1925,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-A6A8-0348-B751-0123F647E1BC}"/>
               </c:ext>
@@ -1704,6 +1933,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1745,7 +1975,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-2E59-B645-BBAE-56E1F927175A}"/>
               </c:ext>
@@ -1753,6 +1983,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1797,7 +2028,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-37E0-EC4B-A62B-D72C906C93DD}"/>
               </c:ext>
@@ -1805,6 +2036,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1849,7 +2081,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-37E0-EC4B-A62B-D72C906C93DD}"/>
               </c:ext>
@@ -1857,6 +2089,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1901,7 +2134,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-D6D1-1543-BC34-0B1DCBB5F750}"/>
               </c:ext>
@@ -1917,8 +2150,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-0D9D-CD40-A631-D3E173EC3E56}"/>
@@ -1962,8 +2200,13 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -1986,8 +2229,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0D9D-CD40-A631-D3E173EC3E56}"/>
@@ -2003,8 +2251,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0D9D-CD40-A631-D3E173EC3E56}"/>
@@ -2048,8 +2301,13 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -2100,8 +2358,13 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -2124,8 +2387,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
@@ -2141,8 +2409,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-B8F5-8D4B-990A-3B5FD7FFB7E8}"/>
@@ -2158,8 +2431,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-A6A8-0348-B751-0123F647E1BC}"/>
@@ -2195,7 +2473,12 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -2210,7 +2493,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2218,7 +2501,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -2421,7 +2704,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FCB2-F141-8F7C-AB9C5A9D886B}"/>
             </c:ext>
@@ -2443,6 +2726,7 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2481,7 +2765,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -2489,6 +2773,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2527,7 +2812,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-0F39-2745-B637-FBF866D0E292}"/>
               </c:ext>
@@ -2562,7 +2847,12 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -2577,7 +2867,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2585,7 +2875,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -2684,7 +2974,7 @@
             <c:numRef>
               <c:f>Sortie!$D$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>60.11</c:v>
@@ -2692,7 +2982,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FCB2-F141-8F7C-AB9C5A9D886B}"/>
             </c:ext>
@@ -2714,6 +3004,7 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2752,7 +3043,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -2760,6 +3051,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -2798,7 +3090,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -2834,7 +3126,12 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -2849,7 +3146,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2857,7 +3154,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -2956,7 +3253,7 @@
             <c:numRef>
               <c:f>Sortie!$D$5:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>23.5</c:v>
@@ -2964,7 +3261,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FCB2-F141-8F7C-AB9C5A9D886B}"/>
             </c:ext>
@@ -2986,6 +3283,7 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3024,7 +3322,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3032,6 +3330,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3070,7 +3369,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3105,7 +3404,12 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3120,7 +3424,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3128,7 +3432,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3227,7 +3531,7 @@
             <c:numRef>
               <c:f>Sortie!$D$7:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>4.16</c:v>
@@ -3238,7 +3542,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0D9D-CD40-A631-D3E173EC3E56}"/>
             </c:ext>
@@ -3260,6 +3564,7 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3298,7 +3603,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000019-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3306,6 +3611,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3344,7 +3650,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001B-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3379,7 +3685,12 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3394,7 +3705,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3402,7 +3713,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3501,7 +3812,7 @@
             <c:numRef>
               <c:f>Sortie!$D$8:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>4.16</c:v>
@@ -3512,7 +3823,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0D9D-CD40-A631-D3E173EC3E56}"/>
             </c:ext>
@@ -3534,6 +3845,7 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3572,7 +3884,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3580,6 +3892,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3618,7 +3931,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-E687-1947-9674-89A1101DDFEA}"/>
               </c:ext>
@@ -3653,7 +3966,12 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3668,7 +3986,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3676,7 +3994,7 @@
             <c:numRef>
               <c:f>Sortie!$E$3:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
@@ -3775,7 +4093,7 @@
             <c:numRef>
               <c:f>Sortie!$D$9:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-">
                   <c:v>4.16</c:v>
@@ -3786,13 +4104,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0D9D-CD40-A631-D3E173EC3E56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3805,13 +4131,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -3858,8 +4185,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3893,7 +4230,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3901,7 +4238,34 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3911,6 +4275,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3949,7 +4314,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1828-C449-A5C0-34E569A8D69D}"/>
               </c:ext>
@@ -3957,6 +4322,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -3995,7 +4361,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1828-C449-A5C0-34E569A8D69D}"/>
               </c:ext>
@@ -4003,6 +4369,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -4041,11 +4408,56 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-1828-C449-A5C0-34E569A8D69D}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -4057,9 +4469,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1828-C449-A5C0-34E569A8D69D}"/>
@@ -4103,9 +4519,13 @@
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -4128,9 +4548,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1828-C449-A5C0-34E569A8D69D}"/>
@@ -4166,8 +4590,12 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -4182,15 +4610,15 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dettes!$B$3:$B$5</c:f>
+              <c:f>Remboursement!$B$3:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Michèle JACQUET</c:v>
                 </c:pt>
@@ -4199,16 +4627,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Guillaume SCHEGG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Martin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dettes!$C$3:$C$5</c:f>
+              <c:f>Remboursement!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6700</c:v>
                 </c:pt>
@@ -4217,18 +4648,27 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>464.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1828-C449-A5C0-34E569A8D69D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -4242,7 +4682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4272,6 +4712,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -4318,11 +4759,21 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4351,10 +4802,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4417,8 +4870,14 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4478,7 +4937,7 @@
             <c:numRef>
               <c:f>Entrée!$D$5:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>_ * #,##0.00_)\ "€"_ ;_ * \(#,##0.00\)\ "€"_ ;_ * "-"??_)\ "€"_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
@@ -4537,16 +4996,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-50ED-A244-BFC3-73D0CA83C7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="119526912"/>
         <c:axId val="119528448"/>
       </c:lineChart>
@@ -4555,9 +5020,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4597,12 +5064,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="119528448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4618,8 +5087,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4662,7 +5132,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4693,13 +5163,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5826,7 +6297,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B828CFF2-47C1-BD4A-A928-23F58314E048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B828CFF2-47C1-BD4A-A928-23F58314E048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5864,7 +6335,7 @@
         <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A58126CD-D9A9-ED47-A131-F34553736D57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58126CD-D9A9-ED47-A131-F34553736D57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5902,7 +6373,7 @@
         <xdr:cNvPr id="8" name="Graphique 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E87C0DE2-E467-3E4A-9F8D-21D1F144D0F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87C0DE2-E467-3E4A-9F8D-21D1F144D0F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5940,7 +6411,7 @@
         <xdr:cNvPr id="9" name="Graphique 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{571F7F8D-00EE-1747-984D-96F235DEA4F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571F7F8D-00EE-1747-984D-96F235DEA4F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,55 +6435,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Nom" dataDxfId="12"/>
-    <tableColumn id="4" name="Libellé2"/>
-    <tableColumn id="2" name="Date" dataDxfId="11"/>
-    <tableColumn id="3" name="Montant" dataCellStyle="Monétaire"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Dépenses478" displayName="Dépenses478" ref="J4:L8" totalsRowShown="0" headerRowDxfId="10" headerRowCellStyle="Normal">
-  <autoFilter ref="J4:L8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Libellé"/>
-    <tableColumn id="2" name="Date" dataDxfId="9"/>
-    <tableColumn id="3" name="Montant" dataCellStyle="Monétaire"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="Normal">
+  <autoFilter ref="J4:N8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Libellé"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{D5DD2B87-DDFE-F042-9BCF-866C9CBD4FD4}" name="Taxes"/>
+    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="1">
+      <calculatedColumnFormula>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
-  <autoFilter ref="B2:F35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="Normal">
+  <autoFilter ref="B2:F35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Libellé"/>
-    <tableColumn id="2" name="Source" dataDxfId="7"/>
-    <tableColumn id="3" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" name="Date" dataDxfId="5"/>
-    <tableColumn id="5" name="Rembourser " dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="10" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Revenu5" displayName="Revenu5" ref="A2:E5" headerRowDxfId="3">
-  <autoFilter ref="A2:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="7">
+  <autoFilter ref="A2:E6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Libellé" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="3" name="Montant" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Libellé" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="4">
       <calculatedColumnFormula>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Remboursement" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" name="Avant Remboursement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Remboursement" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6273,14 +6748,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6291,20 +6766,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="28.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="35.25" customHeight="1">
@@ -6321,7 +6796,7 @@
       <c r="B3" s="2"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:15" ht="20.45" customHeight="1">
+    <row r="4" spans="2:15" ht="20.5" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
@@ -6336,29 +6811,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="20.45" customHeight="1">
+    <row r="5" spans="2:15" ht="20.5" customHeight="1">
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:15" ht="20.45" customHeight="1">
+    <row r="6" spans="2:15" ht="20.5" customHeight="1">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="2:15" ht="20.45" customHeight="1"/>
-    <row r="8" spans="2:15" ht="20.45" customHeight="1">
+    <row r="7" spans="2:15" ht="20.5" customHeight="1"/>
+    <row r="8" spans="2:15" ht="20.5" customHeight="1">
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="2:15" ht="20.45" customHeight="1"/>
-    <row r="10" spans="2:15" ht="20.45" customHeight="1">
+    <row r="9" spans="2:15" ht="20.5" customHeight="1"/>
+    <row r="10" spans="2:15" ht="20.5" customHeight="1">
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:15" ht="22.5" customHeight="1">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:15" ht="35.1" customHeight="1">
+    <row r="12" spans="2:15" ht="35" customHeight="1">
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="24.95" customHeight="1">
+    <row r="13" spans="2:15" ht="25" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -6368,75 +6843,75 @@
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:15" ht="24.95" customHeight="1">
+    <row r="14" spans="2:15" ht="25" customHeight="1">
       <c r="C14" s="3"/>
       <c r="D14" s="14"/>
       <c r="G14" s="10"/>
       <c r="H14" s="14"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="2:15" ht="24.95" customHeight="1">
+    <row r="15" spans="2:15" ht="25" customHeight="1">
       <c r="C15" s="3"/>
       <c r="D15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="2:15" ht="24.95" customHeight="1">
+    <row r="16" spans="2:15" ht="25" customHeight="1">
       <c r="C16" s="3"/>
       <c r="D16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="2:12" ht="24.95" customHeight="1">
+    <row r="17" spans="2:12" ht="25" customHeight="1">
       <c r="C17" s="3"/>
       <c r="D17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1">
+    <row r="18" spans="2:12" ht="25" customHeight="1">
       <c r="C18" s="17"/>
       <c r="F18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1">
+    <row r="19" spans="2:12" ht="25" customHeight="1">
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:12" ht="24.95" customHeight="1">
+    <row r="20" spans="2:12" ht="25" customHeight="1">
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:12" ht="24.95" customHeight="1">
+    <row r="21" spans="2:12" ht="25" customHeight="1">
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:12" ht="24.95" customHeight="1">
+    <row r="22" spans="2:12" ht="25" customHeight="1">
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="24" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="25" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="26" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="27" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="28" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="29" spans="2:12" ht="24.95" customHeight="1"/>
-    <row r="30" spans="2:12" ht="24.95" customHeight="1">
+    <row r="23" spans="2:12" ht="25" customHeight="1"/>
+    <row r="24" spans="2:12" ht="25" customHeight="1"/>
+    <row r="25" spans="2:12" ht="25" customHeight="1"/>
+    <row r="26" spans="2:12" ht="25" customHeight="1"/>
+    <row r="27" spans="2:12" ht="25" customHeight="1"/>
+    <row r="28" spans="2:12" ht="25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="25" customHeight="1"/>
+    <row r="30" spans="2:12" ht="25" customHeight="1">
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="2:12" ht="24.95" customHeight="1">
+    <row r="31" spans="2:12" ht="25" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:12" ht="24.95" customHeight="1">
+    <row r="32" spans="2:12" ht="25" customHeight="1">
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="2:3" ht="24.95" customHeight="1">
+    <row r="33" spans="2:3" ht="25" customHeight="1">
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="2:3" ht="24.95" customHeight="1">
+    <row r="34" spans="2:3" ht="25" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="10"/>
     </row>
@@ -6470,31 +6945,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:R38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="23.25">
+    <row r="3" spans="1:20" ht="23">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -6510,18 +6985,18 @@
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="Q3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="R3" t="s">
+      <c r="R3" s="6"/>
+      <c r="T3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75">
+    <row r="4" spans="1:20" ht="19">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -6558,23 +7033,29 @@
       <c r="L4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="37">
-        <f>SUM(P4:P14)</f>
-        <v>1260</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="M4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="37">
+        <f>SUM(R4:R14)</f>
+        <v>1022</v>
+      </c>
+      <c r="Q4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="40">
+      <c r="R4" s="40">
         <v>0</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="38">
-        <f>SUM(F4,N4)</f>
-        <v>2157.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="18.75">
+      <c r="S4" s="30"/>
+      <c r="T4" s="38">
+        <f>SUM(F4,P4)</f>
+        <v>1919.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19">
       <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
@@ -6608,15 +7089,22 @@
       <c r="L5" s="14">
         <v>1100</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="M5" s="46">
+        <v>243</v>
+      </c>
+      <c r="N5" s="47">
+        <f>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</f>
+        <v>857</v>
+      </c>
+      <c r="Q5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="40">
+      <c r="R5" s="40">
         <v>0</v>
       </c>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="1:18" ht="18.75">
+      <c r="S5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" ht="19">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -6649,15 +7137,19 @@
       <c r="L6" s="14">
         <v>165</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="N6" s="47">
+        <f>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</f>
+        <v>165</v>
+      </c>
+      <c r="Q6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="40">
+      <c r="R6" s="40">
         <v>0</v>
       </c>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7" spans="1:18" ht="18.75">
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" ht="19">
       <c r="A7" s="30" t="s">
         <v>60</v>
       </c>
@@ -6684,16 +7176,20 @@
       <c r="I7" s="34"/>
       <c r="K7" s="3"/>
       <c r="L7" s="14"/>
-      <c r="O7" s="30" t="s">
+      <c r="N7" s="47">
+        <f>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="40">
+      <c r="R7" s="40">
         <f>SUM(L9:L13)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="30"/>
-    </row>
-    <row r="8" spans="1:18" ht="18.75">
+      <c r="S7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" ht="19">
       <c r="A8" s="30" t="s">
         <v>61</v>
       </c>
@@ -6720,16 +7216,20 @@
       <c r="I8" s="24"/>
       <c r="K8" s="3"/>
       <c r="L8" s="14"/>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="47">
+        <f>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="40">
+      <c r="R8" s="40">
         <f>L14</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:18" ht="18.75">
+      <c r="S8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" ht="19">
       <c r="A9" s="30" t="s">
         <v>62</v>
       </c>
@@ -6753,15 +7253,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="O9" s="30" t="s">
+      <c r="Q9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="40">
+      <c r="R9" s="40">
         <v>0</v>
       </c>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="1:18" ht="18.75">
+      <c r="S9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" ht="19">
       <c r="A10" s="30" t="s">
         <v>63</v>
       </c>
@@ -6784,15 +7284,15 @@
       <c r="H10" s="39">
         <v>0</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="Q10" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="40">
+      <c r="R10" s="40">
         <v>0</v>
       </c>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:18" ht="18.75">
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:20" ht="19">
       <c r="A11" s="30" t="s">
         <v>64</v>
       </c>
@@ -6816,15 +7316,15 @@
         <f>SUM(D15,D16)</f>
         <v>123.25</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="Q11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="40">
+      <c r="R11" s="40">
         <v>0</v>
       </c>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:18" ht="18.75">
+      <c r="S11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" ht="19">
       <c r="A12" s="30" t="s">
         <v>65</v>
       </c>
@@ -6848,16 +7348,16 @@
         <f>SUM(D17,D18)</f>
         <v>206.13</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="Q12" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="40">
+      <c r="R12" s="40">
         <f>SUM(L15,L16)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13" spans="1:18" ht="18.75">
+      <c r="S12" s="30"/>
+    </row>
+    <row r="13" spans="1:20" ht="19">
       <c r="A13" s="30" t="s">
         <v>66</v>
       </c>
@@ -6881,15 +7381,16 @@
         <f>SUM(D20,D21)</f>
         <v>36.67</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="Q13" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="40">
-        <v>1260</v>
-      </c>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="1:18" ht="18.75">
+      <c r="R13" s="40">
+        <f>SUM(N5:N6)</f>
+        <v>1022</v>
+      </c>
+      <c r="S13" s="30"/>
+    </row>
+    <row r="14" spans="1:20" ht="19">
       <c r="A14" s="30" t="s">
         <v>63</v>
       </c>
@@ -6908,13 +7409,13 @@
       <c r="G14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="Q14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="30"/>
-    </row>
-    <row r="15" spans="1:18" ht="18.75">
+      <c r="R14" s="40"/>
+      <c r="S14" s="30"/>
+    </row>
+    <row r="15" spans="1:20" ht="19">
       <c r="A15" s="30" t="s">
         <v>89</v>
       </c>
@@ -6931,11 +7432,11 @@
         <v>90</v>
       </c>
       <c r="G15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75">
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+    </row>
+    <row r="16" spans="1:20" ht="19">
       <c r="A16" s="30" t="s">
         <v>109</v>
       </c>
@@ -6951,11 +7452,11 @@
       <c r="E16" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17" ht="18.75">
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+    </row>
+    <row r="17" spans="1:19" ht="19">
       <c r="A17" s="30" t="s">
         <v>105</v>
       </c>
@@ -6971,11 +7472,11 @@
       <c r="E17" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" ht="18.75">
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" ht="19">
       <c r="A18" s="30"/>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -6989,11 +7490,11 @@
       <c r="E18" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17" ht="18.75">
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+    </row>
+    <row r="19" spans="1:19" ht="19">
       <c r="A19" s="30" t="s">
         <v>110</v>
       </c>
@@ -7010,7 +7511,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.75">
+    <row r="20" spans="1:19" ht="19">
       <c r="A20" s="30" t="s">
         <v>119</v>
       </c>
@@ -7027,7 +7528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75">
+    <row r="21" spans="1:19" ht="19">
       <c r="A21" s="30" t="s">
         <v>121</v>
       </c>
@@ -7044,7 +7545,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75">
+    <row r="22" spans="1:19" ht="19">
       <c r="A22" s="30" t="s">
         <v>122</v>
       </c>
@@ -7059,96 +7560,96 @@
       </c>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" spans="1:17" ht="18.75">
+    <row r="23" spans="1:19" ht="19">
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="1:17" ht="18.75">
+    <row r="24" spans="1:19" ht="19">
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="1:17" ht="18.75">
+    <row r="25" spans="1:19" ht="19">
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75">
+    <row r="26" spans="1:19" ht="19">
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="1:17" ht="18.75">
+    <row r="27" spans="1:19" ht="19">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75">
+    <row r="28" spans="1:19" ht="19">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" spans="1:17" ht="18.75">
+    <row r="29" spans="1:19" ht="19">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" spans="1:17" ht="18.75">
+    <row r="30" spans="1:19" ht="19">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" spans="1:17" ht="18.75">
+    <row r="31" spans="1:19" ht="19">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75">
+    <row r="32" spans="1:19" ht="19">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
     </row>
-    <row r="33" spans="2:5" ht="18.75">
+    <row r="33" spans="2:5" ht="19">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" spans="2:5" ht="18.75">
+    <row r="34" spans="2:5" ht="19">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" spans="2:5" ht="18.75">
+    <row r="35" spans="2:5" ht="19">
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18.75">
+    <row r="36" spans="2:5" ht="19">
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" spans="2:5" ht="18.75">
+    <row r="37" spans="2:5" ht="19">
       <c r="B37" s="30"/>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
     </row>
-    <row r="38" spans="2:5" ht="18.75">
+    <row r="38" spans="2:5" ht="19">
       <c r="B38" s="30"/>
       <c r="E38" s="33"/>
     </row>
@@ -7162,23 +7663,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="25"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="25"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25">
+    <row r="1" spans="1:13" ht="23">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7529,7 +8030,7 @@
       <c r="I14" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="44">
         <f>SUM(J4,J6,J8,J10,J12)</f>
         <v>7832.77</v>
       </c>
@@ -7985,23 +8486,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25">
+    <row r="1" spans="1:5" ht="23">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8014,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>37</v>
@@ -8030,7 +8534,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
         <v>6700</v>
       </c>
@@ -8048,7 +8552,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
         <v>125.79000000000002</v>
       </c>
@@ -8068,7 +8572,7 @@
       <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
         <v>464.44</v>
       </c>
@@ -8079,7 +8583,15 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="43">
+        <f>Sortie!J10</f>
+        <v>55.59</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" s="10"/>
@@ -8093,7 +8605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
@@ -8101,9 +8613,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F76B405-1987-8B4E-95B1-D3148D75D8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE0C15-EEF3-4449-B08D-C5E9605ECC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,10 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -719,29 +713,8 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3" tint="0.39991454817346722"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -751,10 +724,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -803,6 +772,26 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39991454817346722"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -834,6 +823,11 @@
         <color theme="3" tint="0.39991454817346722"/>
         <name val="Arial"/>
         <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -4458,6 +4452,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6D37-144E-AFA0-FFC145560A47}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -4641,7 +4640,7 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6700</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>125.79000000000002</c:v>
@@ -6435,12 +6434,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
   <autoFilter ref="A4:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6448,14 +6447,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="11" headerRowCellStyle="Normal">
   <autoFilter ref="J4:N8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
     <tableColumn id="4" xr3:uid="{D5DD2B87-DDFE-F042-9BCF-866C9CBD4FD4}" name="Taxes"/>
-    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="9">
       <calculatedColumnFormula>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6464,30 +6463,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
   <autoFilter ref="B2:F35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="10" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="3">
   <autoFilter ref="A2:E6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Libellé" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="1">
       <calculatedColumnFormula>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Remboursement" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6948,7 +6947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -7666,7 +7665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -8492,8 +8491,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8536,10 +8535,10 @@
       </c>
       <c r="C3" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="D3" s="15">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E3" s="10">
         <v>7000</v>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE0C15-EEF3-4449-B08D-C5E9605ECC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144637-5178-7D4E-9EE7-D60AF605C5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
   <si>
     <t>Montant</t>
   </si>
@@ -418,6 +424,12 @@
   </si>
   <si>
     <t>Gain total</t>
+  </si>
+  <si>
+    <t>#P-5dea7d047574c</t>
+  </si>
+  <si>
+    <t>Zgeg</t>
   </si>
 </sst>
 </file>
@@ -4934,10 +4946,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$22</c:f>
+              <c:f>Entrée!$D$5:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -4991,6 +5003,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6434,8 +6452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D22" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D24" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -6947,8 +6965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7013,7 +7031,7 @@
       </c>
       <c r="F4" s="42">
         <f>SUM(D5:D46)</f>
-        <v>897.43999999999994</v>
+        <v>924.93999999999994</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -7051,7 +7069,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="38">
         <f>SUM(F4,P4)</f>
-        <v>1919.44</v>
+        <v>1946.94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7408,6 +7426,7 @@
       <c r="G14" s="30" t="s">
         <v>84</v>
       </c>
+      <c r="H14" s="39"/>
       <c r="Q14" s="30" t="s">
         <v>84</v>
       </c>
@@ -7431,6 +7450,7 @@
         <v>90</v>
       </c>
       <c r="G15" s="30"/>
+      <c r="H15" s="39"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
@@ -7451,6 +7471,7 @@
       <c r="E16" s="33" t="s">
         <v>98</v>
       </c>
+      <c r="H16" s="39"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
@@ -7471,6 +7492,7 @@
       <c r="E17" s="33" t="s">
         <v>103</v>
       </c>
+      <c r="H17" s="39"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
@@ -7560,15 +7582,33 @@
       <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:19" ht="19">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31">
+        <v>43806</v>
+      </c>
+      <c r="D23" s="32">
+        <v>12.5</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="19">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="31">
+        <v>43806</v>
+      </c>
+      <c r="D24" s="32">
+        <v>15</v>
+      </c>
       <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:19" ht="19">
@@ -8491,7 +8531,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144637-5178-7D4E-9EE7-D60AF605C5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DB400-696B-794B-8722-E85E2B970C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <si>
     <t>Montant</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Zgeg</t>
+  </si>
+  <si>
+    <t>#P-5ded22d1497cc</t>
   </si>
 </sst>
 </file>
@@ -587,6 +590,7 @@
       <sz val="12"/>
       <color theme="3" tint="0.39991454817346722"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -4946,10 +4950,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$24</c:f>
+              <c:f>Entrée!$D$5:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5009,6 +5013,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6452,8 +6459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D24" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D25" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D25" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -6966,7 +6973,7 @@
   <dimension ref="A3:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7031,7 +7038,7 @@
       </c>
       <c r="F4" s="42">
         <f>SUM(D5:D46)</f>
-        <v>924.93999999999994</v>
+        <v>982.43999999999994</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -7069,7 +7076,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="38">
         <f>SUM(F4,P4)</f>
-        <v>1946.94</v>
+        <v>2004.44</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7395,8 +7402,8 @@
         <v>83</v>
       </c>
       <c r="H13" s="39">
-        <f>SUM(D20,D21)</f>
-        <v>36.67</v>
+        <f>SUM(D20,D21,D22)</f>
+        <v>42.67</v>
       </c>
       <c r="Q13" s="30" t="s">
         <v>83</v>
@@ -7426,7 +7433,10 @@
       <c r="G14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <f>SUM(D23:D25)</f>
+        <v>85</v>
+      </c>
       <c r="Q14" s="30" t="s">
         <v>84</v>
       </c>
@@ -7612,10 +7622,19 @@
       <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:19" ht="19">
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="31">
+        <v>43807</v>
+      </c>
+      <c r="D25" s="32">
+        <v>57.5</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="19">
       <c r="B26" s="30"/>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DB400-696B-794B-8722-E85E2B970C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826AF70-3AF6-AC4D-9268-280AD1F5D66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="133">
   <si>
     <t>Montant</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>#P-5ded22d1497cc</t>
+  </si>
+  <si>
+    <t>Frais de livraison client 17</t>
+  </si>
+  <si>
+    <t>#P-5ded3a6e3a4f4</t>
   </si>
 </sst>
 </file>
@@ -2509,10 +2515,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$35</c:f>
+              <c:f>Sortie!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -2602,16 +2608,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sortie!$D$3:$D$35</c:f>
+              <c:f>Sortie!$D$3:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* "-"??\ [$€-40C]_-;_-@_-</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>6915.9</c:v>
                 </c:pt>
@@ -2710,6 +2719,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,10 +2895,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$35</c:f>
+              <c:f>Sortie!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -2976,6 +2988,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,10 +3177,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$35</c:f>
+              <c:f>Sortie!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -3255,6 +3270,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3440,10 +3458,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$35</c:f>
+              <c:f>Sortie!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -3533,6 +3551,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,10 +3742,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$35</c:f>
+              <c:f>Sortie!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -3814,6 +3835,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4002,10 +4026,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$35</c:f>
+              <c:f>Sortie!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -4095,6 +4119,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,7 +4686,7 @@
                   <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.79000000000002</c:v>
+                  <c:v>129.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>464.44</c:v>
@@ -4950,10 +4977,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$25</c:f>
+              <c:f>Entrée!$D$5:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5016,6 +5043,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,8 +6489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D25" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D25" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D26" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D26" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -6488,8 +6518,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F35" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
-  <autoFilter ref="B2:F35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F36" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="B2:F36" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
@@ -6973,23 +7003,29 @@
   <dimension ref="A3:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="1.5703125" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7038,7 +7074,7 @@
       </c>
       <c r="F4" s="42">
         <f>SUM(D5:D46)</f>
-        <v>982.43999999999994</v>
+        <v>1015.7399999999999</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -7076,7 +7112,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="38">
         <f>SUM(F4,P4)</f>
-        <v>2004.44</v>
+        <v>2037.7399999999998</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7434,8 +7470,8 @@
         <v>84</v>
       </c>
       <c r="H14" s="39">
-        <f>SUM(D23:D25)</f>
-        <v>85</v>
+        <f>SUM(D23:D26)</f>
+        <v>118.3</v>
       </c>
       <c r="Q14" s="30" t="s">
         <v>84</v>
@@ -7637,10 +7673,19 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="19">
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="31">
+        <v>43807</v>
+      </c>
+      <c r="D26" s="32">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="19">
       <c r="B27" s="30"/>
@@ -7722,10 +7767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7864,12 +7909,12 @@
         <v>36</v>
       </c>
       <c r="J6" s="23">
-        <f>SUM(D7,D8,D9,D14,D15,D16,D17,D28,D29,D31,D32,D33,D34,D35)+11.78</f>
-        <v>230.79000000000002</v>
+        <f>SUM(D7,D8,D9,D14,D15,D16,D17,D28,D29,D31,D32,D33,D34,D35,D36)+11.78</f>
+        <v>234.71</v>
       </c>
       <c r="K6" s="23">
         <f>J6-L6</f>
-        <v>230.79000000000002</v>
+        <v>234.71</v>
       </c>
       <c r="L6" s="15"/>
     </row>
@@ -8090,7 +8135,7 @@
       </c>
       <c r="J14" s="44">
         <f>SUM(J4,J6,J8,J10,J12)</f>
-        <v>7832.77</v>
+        <v>7836.69</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8532,6 +8577,26 @@
         <v>43788</v>
       </c>
       <c r="F35" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3.92</v>
+      </c>
+      <c r="E36" s="20">
+        <v>43808</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8551,7 +8616,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8612,7 +8677,7 @@
       </c>
       <c r="C4" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>125.79000000000002</v>
+        <v>129.71</v>
       </c>
       <c r="D4" s="15">
         <f>100+5</f>
@@ -8620,7 +8685,7 @@
       </c>
       <c r="E4" s="10">
         <f>Sortie!K6</f>
-        <v>230.79000000000002</v>
+        <v>234.71</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826AF70-3AF6-AC4D-9268-280AD1F5D66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FBFF9-7EAB-6C45-922E-D027171EA299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
   <si>
     <t>Montant</t>
   </si>
@@ -439,6 +433,9 @@
   </si>
   <si>
     <t>#P-5ded3a6e3a4f4</t>
+  </si>
+  <si>
+    <t>Frais de livraison client 18</t>
   </si>
 </sst>
 </file>
@@ -2515,10 +2512,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$36</c:f>
+              <c:f>Sortie!$E$3:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -2611,16 +2608,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sortie!$D$3:$D$36</c:f>
+              <c:f>Sortie!$D$3:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* "-"??\ [$€-40C]_-;_-@_-</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>6915.9</c:v>
                 </c:pt>
@@ -2722,6 +2722,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,10 +2898,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$36</c:f>
+              <c:f>Sortie!$E$3:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -2991,6 +2994,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,10 +3183,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$36</c:f>
+              <c:f>Sortie!$E$3:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -3273,6 +3279,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,10 +3467,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$36</c:f>
+              <c:f>Sortie!$E$3:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -3554,6 +3563,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,10 +3754,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$36</c:f>
+              <c:f>Sortie!$E$3:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -3838,6 +3850,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,10 +4041,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sortie!$E$3:$E$36</c:f>
+              <c:f>Sortie!$E$3:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>43514</c:v>
                 </c:pt>
@@ -4122,6 +4137,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6518,8 +6536,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F36" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
-  <autoFilter ref="B2:F36" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="B2:F37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
@@ -7002,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7767,10 +7785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8598,6 +8616,26 @@
       </c>
       <c r="F36" s="25" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="22">
+        <v>4.55</v>
+      </c>
+      <c r="E37" s="20">
+        <v>43812</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FBFF9-7EAB-6C45-922E-D027171EA299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB47729-4F93-F44D-B65A-C9EE08C07FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
   <si>
     <t>Montant</t>
   </si>
@@ -423,9 +429,6 @@
     <t>#P-5dea7d047574c</t>
   </si>
   <si>
-    <t>Zgeg</t>
-  </si>
-  <si>
     <t>#P-5ded22d1497cc</t>
   </si>
   <si>
@@ -436,6 +439,15 @@
   </si>
   <si>
     <t>Frais de livraison client 18</t>
+  </si>
+  <si>
+    <t>Mathieu DUPUY</t>
+  </si>
+  <si>
+    <t>Matthieu Lamoureux</t>
+  </si>
+  <si>
+    <t>Jean-Marc FAGES</t>
   </si>
 </sst>
 </file>
@@ -7020,8 +7032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7646,7 +7658,9 @@
       <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:19" ht="19">
-      <c r="A23" s="30"/>
+      <c r="A23" s="30" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="30" t="s">
         <v>17</v>
       </c>
@@ -7662,7 +7676,7 @@
     </row>
     <row r="24" spans="1:19" ht="19">
       <c r="A24" s="30" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>123</v>
@@ -7676,7 +7690,9 @@
       <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:19" ht="19">
-      <c r="A25" s="30"/>
+      <c r="A25" s="30" t="s">
+        <v>133</v>
+      </c>
       <c r="B25" s="30" t="s">
         <v>17</v>
       </c>
@@ -7687,11 +7703,13 @@
         <v>57.5</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="19">
-      <c r="A26" s="30"/>
+      <c r="A26" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="B26" s="30" t="s">
         <v>17</v>
       </c>
@@ -7702,7 +7720,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="19">
@@ -7787,7 +7805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -8603,7 +8621,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>28</v>
@@ -8623,7 +8641,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>53</v>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB47729-4F93-F44D-B65A-C9EE08C07FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D63A79-C84D-DB4A-B7C6-94710827AB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>Montant</t>
   </si>
@@ -448,6 +442,9 @@
   </si>
   <si>
     <t>Jean-Marc FAGES</t>
+  </si>
+  <si>
+    <t>Frais de livraison client 19</t>
   </si>
 </sst>
 </file>
@@ -7032,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7803,10 +7800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8653,6 +8650,26 @@
         <v>43812</v>
       </c>
       <c r="F37" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="22">
+        <v>4.55</v>
+      </c>
+      <c r="E38" s="20">
+        <v>43815</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>95</v>
       </c>
     </row>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D63A79-C84D-DB4A-B7C6-94710827AB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C0FFF-F5B8-E34D-88C5-DBDBF83D7F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
   <si>
     <t>Montant</t>
   </si>
@@ -445,6 +451,15 @@
   </si>
   <si>
     <t>Frais de livraison client 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathieu Jacquet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#P-5cdbead1c17af </t>
+  </si>
+  <si>
+    <t>Janvier</t>
   </si>
 </sst>
 </file>
@@ -741,6 +756,11 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -851,11 +871,6 @@
         <color theme="3" tint="0.39991454817346722"/>
         <name val="Arial"/>
         <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -5004,10 +5019,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$26</c:f>
+              <c:f>Entrée!$D$5:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5024,55 +5039,61 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.17</c:v>
+                  <c:v>44.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>28.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.83</c:v>
+                  <c:v>37.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>9.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191.67</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>162.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>26.92</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>96.33</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>163.63</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>42.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>9.2100000000000009</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.670000000000002</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
                 <c:pt idx="19">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>57.5</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.299999999999997</c:v>
+                  <c:v>48.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,12 +6537,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D26" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D26" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D28" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6529,14 +6550,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="11" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="Normal">
   <autoFilter ref="J4:N8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
     <tableColumn id="4" xr3:uid="{D5DD2B87-DDFE-F042-9BCF-866C9CBD4FD4}" name="Taxes"/>
-    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="10">
       <calculatedColumnFormula>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6545,30 +6566,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="9" headerRowCellStyle="Normal">
   <autoFilter ref="B2:F37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="7" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="4">
   <autoFilter ref="A2:E6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Libellé" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="2">
       <calculatedColumnFormula>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Remboursement" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7027,10 +7048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:T38"/>
+  <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7100,8 +7121,8 @@
         <v>41</v>
       </c>
       <c r="F4" s="42">
-        <f>SUM(D5:D46)</f>
-        <v>1015.7399999999999</v>
+        <f>SUM(H4:H14)</f>
+        <v>980.03</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -7139,7 +7160,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="38">
         <f>SUM(F4,P4)</f>
-        <v>2037.7399999999998</v>
+        <v>2002.03</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7257,8 +7278,8 @@
         <v>76</v>
       </c>
       <c r="H7" s="39">
-        <f>SUM(D9:D13)</f>
-        <v>164.5</v>
+        <f>SUM(D9:D14)</f>
+        <v>170.71</v>
       </c>
       <c r="I7" s="34"/>
       <c r="K7" s="3"/>
@@ -7271,7 +7292,7 @@
         <v>76</v>
       </c>
       <c r="R7" s="40">
-        <f>SUM(L9:L13)</f>
+        <f>SUM(L9:L14)</f>
         <v>0</v>
       </c>
       <c r="S7" s="30"/>
@@ -7297,8 +7318,8 @@
         <v>77</v>
       </c>
       <c r="H8" s="39">
-        <f>D14</f>
-        <v>191.67</v>
+        <f>D15</f>
+        <v>162.91999999999999</v>
       </c>
       <c r="I8" s="24"/>
       <c r="K8" s="3"/>
@@ -7311,7 +7332,7 @@
         <v>77</v>
       </c>
       <c r="R8" s="40">
-        <f>L14</f>
+        <f>L15</f>
         <v>0</v>
       </c>
       <c r="S8" s="30"/>
@@ -7359,7 +7380,7 @@
         <v>43599</v>
       </c>
       <c r="D10" s="32">
-        <v>44.17</v>
+        <v>44.63</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>68</v>
@@ -7380,9 +7401,7 @@
       <c r="S10" s="30"/>
     </row>
     <row r="11" spans="1:20" ht="19">
-      <c r="A11" s="30" t="s">
-        <v>64</v>
-      </c>
+      <c r="A11" s="30"/>
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -7390,17 +7409,17 @@
         <v>43599</v>
       </c>
       <c r="D11" s="32">
-        <v>52.5</v>
+        <v>28.33</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="30" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="39">
-        <f>SUM(D15,D16)</f>
+        <f>SUM(D16,D17)</f>
         <v>123.25</v>
       </c>
       <c r="Q11" s="30" t="s">
@@ -7413,60 +7432,60 @@
     </row>
     <row r="12" spans="1:20" ht="19">
       <c r="A12" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="31">
-        <v>43613</v>
+        <v>43599</v>
       </c>
       <c r="D12" s="32">
-        <v>10.83</v>
+        <v>37.54</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="30" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="39">
-        <f>SUM(D17,D18)</f>
+        <f>SUM(D18,D19)</f>
         <v>206.13</v>
       </c>
       <c r="Q12" s="30" t="s">
         <v>82</v>
       </c>
       <c r="R12" s="40">
-        <f>SUM(L15,L16)</f>
+        <f>SUM(L16,L17)</f>
         <v>0</v>
       </c>
       <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:20" ht="19">
       <c r="A13" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="31">
-        <v>43614</v>
+        <v>43613</v>
       </c>
       <c r="D13" s="32">
-        <v>40</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="30" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="39">
-        <f>SUM(D20,D21,D22)</f>
-        <v>42.67</v>
+        <f>SUM(D21,D22,D23)</f>
+        <v>37.17</v>
       </c>
       <c r="Q13" s="30" t="s">
         <v>83</v>
@@ -7479,26 +7498,27 @@
     </row>
     <row r="14" spans="1:20" ht="19">
       <c r="A14" s="30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="31">
-        <v>43637</v>
+        <v>43614</v>
       </c>
       <c r="D14" s="32">
-        <v>191.67</v>
+        <v>34</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F14" s="33"/>
       <c r="G14" s="30" t="s">
         <v>84</v>
       </c>
       <c r="H14" s="39">
-        <f>SUM(D23:D26)</f>
-        <v>118.3</v>
+        <f>SUM(D24:D28)</f>
+        <v>119.84</v>
       </c>
       <c r="Q14" s="30" t="s">
         <v>84</v>
@@ -7508,41 +7528,43 @@
     </row>
     <row r="15" spans="1:20" ht="19">
       <c r="A15" s="30" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="31">
-        <v>43712</v>
+        <v>43637</v>
       </c>
       <c r="D15" s="32">
-        <v>26.92</v>
+        <v>162.91999999999999</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="39"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
       <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:20" ht="19">
       <c r="A16" s="30" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="31">
-        <v>43737</v>
+        <v>43712</v>
       </c>
       <c r="D16" s="32">
-        <v>96.33</v>
+        <v>26.92</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="H16" s="39"/>
       <c r="Q16" s="30"/>
@@ -7551,19 +7573,22 @@
     </row>
     <row r="17" spans="1:19" ht="19">
       <c r="A17" s="30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="31">
-        <v>43739</v>
+        <v>43737</v>
       </c>
       <c r="D17" s="32">
-        <v>163.63</v>
+        <v>96.33</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="H17" s="39"/>
       <c r="Q17" s="30"/>
@@ -7571,141 +7596,169 @@
       <c r="S17" s="30"/>
     </row>
     <row r="18" spans="1:19" ht="19">
-      <c r="A18" s="30"/>
+      <c r="A18" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="31">
-        <v>43745</v>
+        <v>43739</v>
       </c>
       <c r="D18" s="32">
-        <v>42.5</v>
+        <v>163.63</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>104</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="39"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" ht="19">
-      <c r="A19" s="30" t="s">
-        <v>110</v>
-      </c>
+      <c r="A19" s="30"/>
       <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="31">
-        <v>43770</v>
+        <v>43745</v>
       </c>
       <c r="D19" s="32">
-        <v>9.2100000000000009</v>
+        <v>42.5</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>111</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:19" ht="19">
       <c r="A20" s="30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="31">
-        <v>43782</v>
+        <v>43770</v>
       </c>
       <c r="D20" s="32">
-        <v>20</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="19">
       <c r="A21" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="31">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="D21" s="32">
-        <v>16.670000000000002</v>
+        <v>17</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="19">
       <c r="A22" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="C22" s="31">
-        <v>43797</v>
+        <v>43783</v>
       </c>
       <c r="D22" s="32">
-        <v>6</v>
-      </c>
-      <c r="E22" s="33"/>
+        <v>14.17</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="19">
       <c r="A23" s="30" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C23" s="31">
-        <v>43806</v>
+        <v>43797</v>
       </c>
       <c r="D23" s="32">
-        <v>12.5</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>128</v>
+        <v>6</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="G23" s="30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="19">
       <c r="A24" s="30" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="C24" s="31">
         <v>43806</v>
       </c>
       <c r="D24" s="32">
-        <v>15</v>
-      </c>
-      <c r="E24" s="33"/>
+        <v>10.63</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="19">
       <c r="A25" s="30" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C25" s="31">
-        <v>43807</v>
+        <v>43806</v>
       </c>
       <c r="D25" s="32">
-        <v>57.5</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="G25" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="19">
       <c r="A26" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>17</v>
@@ -7714,22 +7767,48 @@
         <v>43807</v>
       </c>
       <c r="D26" s="32">
-        <v>33.299999999999997</v>
+        <v>48.88</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="19">
+      <c r="A27" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="31">
+        <v>43807</v>
+      </c>
+      <c r="D27" s="32">
+        <v>28.33</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="19">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
+      <c r="G27" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="19">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="31">
+        <v>43814</v>
+      </c>
+      <c r="D28" s="32">
+        <v>17</v>
+      </c>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:19" ht="19">
@@ -7782,12 +7861,18 @@
     </row>
     <row r="37" spans="2:5" ht="19">
       <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
     </row>
     <row r="38" spans="2:5" ht="19">
       <c r="B38" s="30"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="2:5" ht="19">
+      <c r="B39" s="30"/>
+      <c r="E39" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7802,7 +7887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C0FFF-F5B8-E34D-88C5-DBDBF83D7F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66A0C59-B3DB-D74F-A174-91A2E77909D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -4728,7 +4728,7 @@
                   <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.71</c:v>
+                  <c:v>112.71000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>464.44</c:v>
@@ -7050,7 +7050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -8773,8 +8773,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8835,11 +8835,11 @@
       </c>
       <c r="C4" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>129.71</v>
+        <v>112.71000000000001</v>
       </c>
       <c r="D4" s="15">
-        <f>100+5</f>
-        <v>105</v>
+        <f>100+5+17</f>
+        <v>122</v>
       </c>
       <c r="E4" s="10">
         <f>Sortie!K6</f>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66A0C59-B3DB-D74F-A174-91A2E77909D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84467174-12D0-9542-B88C-C2102325E193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="142">
   <si>
     <t>Montant</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>Janvier</t>
+  </si>
+  <si>
+    <t>O2swirch</t>
+  </si>
+  <si>
+    <t>Hebergeur site internet</t>
   </si>
 </sst>
 </file>
@@ -756,11 +762,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -875,6 +876,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4"/>
       </font>
     </dxf>
@@ -1075,10 +1081,13 @@
             <c:numRef>
               <c:f>Entrée!$M$5:$M$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ ">
                   <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,7 +5093,7 @@
                   <c:v>10.63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48.88</c:v>
@@ -6537,12 +6546,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D28" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D28" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
   <autoFilter ref="A4:D28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6550,14 +6559,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="11" headerRowCellStyle="Normal">
   <autoFilter ref="J4:N8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
     <tableColumn id="4" xr3:uid="{D5DD2B87-DDFE-F042-9BCF-866C9CBD4FD4}" name="Taxes"/>
-    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="9">
       <calculatedColumnFormula>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6566,30 +6575,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="9" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
   <autoFilter ref="B2:F37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="7" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="3">
   <autoFilter ref="A2:E6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Libellé" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="1">
       <calculatedColumnFormula>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Remboursement" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7050,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7122,7 +7131,7 @@
       </c>
       <c r="F4" s="42">
         <f>SUM(H4:H14)</f>
-        <v>980.03</v>
+        <v>990.03</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -7160,7 +7169,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="38">
         <f>SUM(F4,P4)</f>
-        <v>2002.03</v>
+        <v>2012.03</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7244,6 +7253,9 @@
       </c>
       <c r="L6" s="14">
         <v>165</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
       </c>
       <c r="N6" s="47">
         <f>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</f>
@@ -7518,7 +7530,7 @@
       </c>
       <c r="H14" s="39">
         <f>SUM(D24:D28)</f>
-        <v>119.84</v>
+        <v>129.84</v>
       </c>
       <c r="Q14" s="30" t="s">
         <v>84</v>
@@ -7566,7 +7578,9 @@
       <c r="G16" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
@@ -7590,7 +7604,9 @@
       <c r="G17" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
@@ -7614,7 +7630,9 @@
       <c r="G18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="32">
+        <v>0</v>
+      </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -7636,6 +7654,9 @@
       <c r="G19" s="30" t="s">
         <v>75</v>
       </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
       <c r="S19" s="30"/>
@@ -7659,6 +7680,9 @@
       <c r="G20" s="30" t="s">
         <v>76</v>
       </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="19">
       <c r="A21" s="30" t="s">
@@ -7679,6 +7703,9 @@
       <c r="G21" s="30" t="s">
         <v>77</v>
       </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="19">
       <c r="A22" s="30" t="s">
@@ -7699,6 +7726,9 @@
       <c r="G22" s="30" t="s">
         <v>79</v>
       </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="19">
       <c r="A23" s="30" t="s">
@@ -7717,6 +7747,9 @@
       <c r="G23" s="30" t="s">
         <v>80</v>
       </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="19">
       <c r="A24" s="30" t="s">
@@ -7737,6 +7770,9 @@
       <c r="G24" s="30" t="s">
         <v>81</v>
       </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="19">
       <c r="A25" s="30" t="s">
@@ -7749,12 +7785,15 @@
         <v>43806</v>
       </c>
       <c r="D25" s="32">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E25" s="33"/>
       <c r="G25" s="30" t="s">
         <v>82</v>
       </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="19">
       <c r="A26" s="30" t="s">
@@ -7775,6 +7814,9 @@
       <c r="G26" s="30" t="s">
         <v>83</v>
       </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="19">
       <c r="A27" s="30" t="s">
@@ -7794,6 +7836,9 @@
       </c>
       <c r="G27" s="30" t="s">
         <v>84</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="19">
@@ -7885,10 +7930,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7974,18 +8019,18 @@
         <v>95</v>
       </c>
       <c r="J4" s="23">
-        <f>SUM(D18,D19,D20,D21,D22,D27)</f>
-        <v>81.949999999999989</v>
+        <f>SUM(D18,D19,D20,D21,D22,D27,D37,D38,D39)</f>
+        <v>152.25</v>
       </c>
       <c r="K4" s="23">
         <f>J4-L4</f>
-        <v>81.949999999999989</v>
+        <v>152.25</v>
       </c>
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <f t="shared" ref="A5:A35" si="0">A4+1</f>
+        <f t="shared" ref="A5:A52" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -8253,7 +8298,7 @@
       </c>
       <c r="J14" s="44">
         <f>SUM(J4,J6,J8,J10,J12)</f>
-        <v>7836.69</v>
+        <v>7906.99</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8700,6 +8745,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -8720,6 +8766,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -8740,6 +8787,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -8756,6 +8804,105 @@
       </c>
       <c r="F38" s="25" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="22">
+        <v>61.2</v>
+      </c>
+      <c r="E39" s="20">
+        <v>43826</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8773,7 +8920,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84467174-12D0-9542-B88C-C2102325E193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478808A-6CC9-4742-ABE4-90084C6D4A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
   <si>
     <t>Montant</t>
   </si>
@@ -466,6 +466,15 @@
   </si>
   <si>
     <t>Hebergeur site internet</t>
+  </si>
+  <si>
+    <t>#P-5e1442ebaa538</t>
+  </si>
+  <si>
+    <t>Total 2019</t>
+  </si>
+  <si>
+    <t>Total 2020</t>
   </si>
 </sst>
 </file>
@@ -762,6 +771,11 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -872,11 +886,6 @@
         <color theme="3" tint="0.39991454817346722"/>
         <name val="Arial"/>
         <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -5028,10 +5037,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$28</c:f>
+              <c:f>Entrée!$D$5:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5103,6 +5112,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>163.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6546,12 +6558,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D28" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D29" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6559,14 +6571,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="11" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Dépenses478" displayName="Dépenses478" ref="J4:N8" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="Normal">
   <autoFilter ref="J4:N8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Montant" dataCellStyle="Monétaire"/>
     <tableColumn id="4" xr3:uid="{D5DD2B87-DDFE-F042-9BCF-866C9CBD4FD4}" name="Taxes"/>
-    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{55A7CAAA-7F2E-2F49-9498-67518DA15018}" name="Gain total" dataDxfId="10">
       <calculatedColumnFormula>Dépenses478[[#This Row],[Montant]]-Dépenses478[[#This Row],[Taxes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6575,30 +6587,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Dépenses6" displayName="Dépenses6" ref="B2:F37" totalsRowShown="0" headerRowDxfId="9" headerRowCellStyle="Normal">
   <autoFilter ref="B2:F37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Libellé"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="6" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Source" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Montant" dataDxfId="7" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rembourser " dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Revenu5" displayName="Revenu5" ref="A2:E6" headerRowDxfId="4">
   <autoFilter ref="A2:E6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Libellé" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Source" totalsRowFunction="sum" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Montant à rembourser" dataDxfId="2">
       <calculatedColumnFormula>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Remboursement" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Avant Remboursement" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableBudget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7060,7 +7072,7 @@
   <dimension ref="A3:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7091,9 +7103,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="F3" s="35" t="s">
-        <v>94</v>
-      </c>
+      <c r="F3" s="35"/>
       <c r="G3" s="35" t="s">
         <v>72</v>
       </c>
@@ -7129,10 +7139,7 @@
       <c r="E4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="42">
-        <f>SUM(H4:H14)</f>
-        <v>990.03</v>
-      </c>
+      <c r="F4" s="35"/>
       <c r="G4" s="30" t="s">
         <v>73</v>
       </c>
@@ -7167,9 +7174,9 @@
         <v>0</v>
       </c>
       <c r="S4" s="30"/>
-      <c r="T4" s="38">
-        <f>SUM(F4,P4)</f>
-        <v>2012.03</v>
+      <c r="T4" s="38" t="e">
+        <f>SUM(#REF!,P4)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7554,8 +7561,12 @@
       <c r="E15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G15">
-        <v>2020</v>
+      <c r="G15" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="42">
+        <f>SUM(H4:H14)</f>
+        <v>990.03</v>
       </c>
       <c r="S15" s="30"/>
     </row>
@@ -7575,12 +7586,6 @@
       <c r="E16" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0</v>
-      </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
@@ -7601,11 +7606,8 @@
       <c r="E17" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0</v>
+      <c r="G17">
+        <v>2020</v>
       </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
@@ -7628,10 +7630,11 @@
         <v>103</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H18" s="32">
-        <v>0</v>
+        <f>SUM(D29)</f>
+        <v>163.63</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
@@ -7652,9 +7655,9 @@
         <v>104</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="15">
+        <v>73</v>
+      </c>
+      <c r="H19" s="32">
         <v>0</v>
       </c>
       <c r="Q19" s="30"/>
@@ -7678,9 +7681,9 @@
         <v>111</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="15">
+        <v>74</v>
+      </c>
+      <c r="H20" s="32">
         <v>0</v>
       </c>
     </row>
@@ -7701,7 +7704,7 @@
         <v>115</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -7724,7 +7727,7 @@
         <v>118</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H22" s="15">
         <v>0</v>
@@ -7745,7 +7748,7 @@
       </c>
       <c r="E23" s="33"/>
       <c r="G23" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" s="15">
         <v>0</v>
@@ -7768,7 +7771,7 @@
         <v>128</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
@@ -7789,7 +7792,7 @@
       </c>
       <c r="E25" s="33"/>
       <c r="G25" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H25" s="15">
         <v>0</v>
@@ -7812,7 +7815,7 @@
         <v>129</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
@@ -7835,7 +7838,7 @@
         <v>131</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H27" s="15">
         <v>0</v>
@@ -7855,18 +7858,48 @@
         <v>17</v>
       </c>
       <c r="E28" s="33"/>
+      <c r="G28" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="19">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="31">
+        <v>43837</v>
+      </c>
+      <c r="D29" s="32">
+        <v>163.63</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="19">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
+      <c r="G30" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="42">
+        <f>SUM(H18:H29)</f>
+        <v>163.63</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="19">
       <c r="B31" s="30"/>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84467174-12D0-9542-B88C-C2102325E193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0EA31-1E58-BF48-AAFF-9CB01554E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
   <si>
     <t>Montant</t>
   </si>
@@ -466,13 +460,17 @@
   </si>
   <si>
     <t>Hebergeur site internet</t>
+  </si>
+  <si>
+    <t>Frais de livraison client 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0&quot; &quot;%"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
@@ -665,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
@@ -752,6 +750,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Monétaire" xfId="4" builtinId="4"/>
@@ -7059,8 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7932,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8831,6 +8830,21 @@
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="48">
+        <v>5.3</v>
+      </c>
+      <c r="E40" s="20">
+        <v>43842</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6">

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0EA31-1E58-BF48-AAFF-9CB01554E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E580F8-09A5-0847-B9B9-6C9AE4089CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,25 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="145">
   <si>
     <t>Montant</t>
   </si>
@@ -463,6 +471,12 @@
   </si>
   <si>
     <t>Frais de livraison client 20</t>
+  </si>
+  <si>
+    <t>Julien Bourdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #P-5e2c425aa4ad4</t>
   </si>
 </sst>
 </file>
@@ -5027,10 +5041,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$28</c:f>
+              <c:f>Entrée!$D$5:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5101,6 +5115,9 @@
                   <c:v>28.33</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -6545,8 +6562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D28" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D29" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -7058,14 +7075,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -7129,8 +7146,8 @@
         <v>41</v>
       </c>
       <c r="F4" s="42">
-        <f>SUM(H4:H14)</f>
-        <v>990.03</v>
+        <f>SUM(H4:H27)</f>
+        <v>1007.03</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>73</v>
@@ -7168,7 +7185,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="38">
         <f>SUM(F4,P4)</f>
-        <v>2012.03</v>
+        <v>2029.03</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19">
@@ -7578,7 +7595,8 @@
         <v>139</v>
       </c>
       <c r="H16" s="32">
-        <v>0</v>
+        <f>D29</f>
+        <v>17</v>
       </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
@@ -7856,10 +7874,21 @@
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:19" ht="19">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="31">
+        <v>43858</v>
+      </c>
+      <c r="D29" s="32">
+        <v>17</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="19">
       <c r="B30" s="30"/>
@@ -7931,7 +7960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E580F8-09A5-0847-B9B9-6C9AE4089CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA79ED-1DDD-7D41-88CD-BF989BE20D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="Épargne_Mensuelle_Totale">'Gérer mon argent'!$C$8</definedName>
     <definedName name="Revenu_Mensuel_Total">'Gérer mon argent'!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="147">
   <si>
     <t>Montant</t>
   </si>
@@ -477,13 +469,20 @@
   </si>
   <si>
     <t xml:space="preserve"> #P-5e2c425aa4ad4</t>
+  </si>
+  <si>
+    <t>Antoine Duchemin</t>
+  </si>
+  <si>
+    <t>Drône (ECL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="8">
+  <numFmts count="9">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;_);[Red]\(#,##0\ &quot;€&quot;\)"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0&quot; &quot;%"/>
@@ -677,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
@@ -765,6 +764,9 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Monétaire" xfId="4" builtinId="4"/>
@@ -5041,10 +5043,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$29</c:f>
+              <c:f>Entrée!$D$5:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5119,6 +5121,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6562,8 +6567,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D29" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D31" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D31" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -7075,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7891,12 +7896,22 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="19">
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="31">
+        <v>43866</v>
+      </c>
+      <c r="D30" s="49">
+        <v>22</v>
+      </c>
       <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:19" ht="19">
+      <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
@@ -7960,7 +7975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA79ED-1DDD-7D41-88CD-BF989BE20D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260A198-DB96-7349-BD35-9353547BABC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
   <si>
     <t>Montant</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Drône (ECL)</t>
+  </si>
+  <si>
+    <t>Antoine Boudon</t>
   </si>
 </sst>
 </file>
@@ -5043,10 +5046,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entrée!$D$5:$D$31</c:f>
+              <c:f>Entrée!$D$5:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4.17</c:v>
                 </c:pt>
@@ -5124,6 +5127,9 @@
                 </c:pt>
                 <c:pt idx="25" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,8 +6573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D31" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
-  <autoFilter ref="A4:D31" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dépenses47" displayName="Dépenses47" ref="A4:D32" totalsRowShown="0" headerRowDxfId="14" headerRowCellStyle="Normal">
+  <autoFilter ref="A4:D32" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Libellé2"/>
@@ -7080,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7911,13 +7917,22 @@
       <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:19" ht="19">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="31">
+        <v>43907</v>
+      </c>
+      <c r="D31" s="49">
+        <v>15</v>
+      </c>
       <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:19" ht="19">
+      <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
@@ -7975,7 +7990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260A198-DB96-7349-BD35-9353547BABC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE50B7-644D-FB4D-88C8-E12536A3A3AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="149">
   <si>
     <t>Montant</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Antoine Boudon</t>
+  </si>
+  <si>
+    <t>Matière (PLA Black)</t>
   </si>
 </sst>
 </file>
@@ -7086,7 +7089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7990,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8910,6 +8913,21 @@
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="48">
+        <v>39.6</v>
+      </c>
+      <c r="E41" s="20">
+        <v>43911</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6">

--- a/COMPTA/Compta.xlsx
+++ b/COMPTA/Compta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bacs/Documents (non iCloud)/HujaTech/COMPTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE50B7-644D-FB4D-88C8-E12536A3A3AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD150F4-E392-0E4C-9D54-2D1473E27ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24180" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gérer mon argent" sheetId="1" r:id="rId1"/>
@@ -4755,13 +4755,13 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>112.71000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>464.44</c:v>
+                  <c:v>264.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55.59</c:v>
@@ -6903,8 +6903,8 @@
   </sheetPr>
   <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="28.5" customHeight="1"/>
@@ -7089,7 +7089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7993,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A10" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9012,7 +9012,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9055,10 +9055,10 @@
       </c>
       <c r="C3" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="D3" s="15">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="10">
         <v>7000</v>
@@ -9093,9 +9093,11 @@
       </c>
       <c r="C5" s="43">
         <f>Revenu5[[#This Row],[Avant Remboursement]]-Revenu5[[#This Row],[Remboursement]]</f>
-        <v>464.44</v>
-      </c>
-      <c r="D5" s="15"/>
+        <v>264.44</v>
+      </c>
+      <c r="D5" s="15">
+        <v>200</v>
+      </c>
       <c r="E5" s="10">
         <f>Sortie!K8</f>
         <v>464.44</v>
